--- a/artfynd/A 17601-2021.xlsx
+++ b/artfynd/A 17601-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98151157</v>
+        <v>98151029</v>
       </c>
       <c r="B2" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>632632.3485854402</v>
+        <v>632490.5157190037</v>
       </c>
       <c r="R2" t="n">
-        <v>6980568.655829432</v>
+        <v>6980800.884662968</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98151026</v>
+        <v>98151157</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>632649.8679980705</v>
+        <v>632632.3485854402</v>
       </c>
       <c r="R3" t="n">
-        <v>6980542.011533309</v>
+        <v>6980568.655829432</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98151027</v>
+        <v>98151026</v>
       </c>
       <c r="B4" t="n">
         <v>89392</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>632572.7828157996</v>
+        <v>632649.8679980705</v>
       </c>
       <c r="R4" t="n">
-        <v>6980630.066191792</v>
+        <v>6980542.011533309</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98151029</v>
+        <v>98151027</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>632490.5157190037</v>
+        <v>632572.7828157996</v>
       </c>
       <c r="R5" t="n">
-        <v>6980800.884662968</v>
+        <v>6980630.066191792</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>

--- a/artfynd/A 17601-2021.xlsx
+++ b/artfynd/A 17601-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98151029</v>
+        <v>98151157</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>632490.5157190037</v>
+        <v>632632.3485854402</v>
       </c>
       <c r="R2" t="n">
-        <v>6980800.884662968</v>
+        <v>6980568.655829432</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98151157</v>
+        <v>98151026</v>
       </c>
       <c r="B3" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>632632.3485854402</v>
+        <v>632649.8679980705</v>
       </c>
       <c r="R3" t="n">
-        <v>6980568.655829432</v>
+        <v>6980542.011533309</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98151026</v>
+        <v>98151027</v>
       </c>
       <c r="B4" t="n">
         <v>89392</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>632649.8679980705</v>
+        <v>632572.7828157996</v>
       </c>
       <c r="R4" t="n">
-        <v>6980542.011533309</v>
+        <v>6980630.066191792</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98151027</v>
+        <v>98151029</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>632572.7828157996</v>
+        <v>632490.5157190037</v>
       </c>
       <c r="R5" t="n">
-        <v>6980630.066191792</v>
+        <v>6980800.884662968</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
